--- a/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,3</t>
+          <t>-0,18; 4,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,15</t>
+          <t>-2,86; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,46</t>
+          <t>-1,54; 4,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 9,32</t>
+          <t>-11,85; 8,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 256,43</t>
+          <t>-72,37; 286,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 718,93</t>
+          <t>-60,17; 661,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 151,88</t>
+          <t>-62,27; 113,22</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,94</t>
+          <t>-5,75; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,35</t>
+          <t>-1,7; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,5</t>
+          <t>-2,07; 2,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 13,33</t>
+          <t>-6,38; 13,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 201,36</t>
+          <t>-38,47; 193,92</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,53</t>
+          <t>-0,86; 3,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,54</t>
+          <t>-1,44; 1,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,3</t>
+          <t>-2,64; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 27,5</t>
+          <t>-0,17; 28,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 245,75</t>
+          <t>-2,32; 241,59</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,24</t>
+          <t>0,35; 3,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,78</t>
+          <t>0,26; 2,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,86</t>
+          <t>-1,02; 0,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,71; -7,15</t>
+          <t>-28,02; -7,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,86; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,42; -36,27</t>
+          <t>-95,31; -38,32</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,51</t>
+          <t>-1,18; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,19</t>
+          <t>-1,17; 1,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 7,76</t>
+          <t>-10,47; 7,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 66,7</t>
+          <t>-39,4; 66,28</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,38</t>
+          <t>0,14; 1,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,57</t>
+          <t>0,17; 1,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 18,94</t>
+          <t>-43,98; 18,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,47; 491,9</t>
+          <t>-69,8; 436,13</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,73</t>
+          <t>-0,37; 0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,94</t>
+          <t>-0,32; 0,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,68</t>
+          <t>-0,61; 0,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 1,87</t>
+          <t>-12,42; 1,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 237,58</t>
+          <t>-44,22; 202,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 183,13</t>
+          <t>-28,09; 187,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 114,7</t>
+          <t>-47,09; 97,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 11,06</t>
+          <t>-65,47; 10,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
